--- a/results/multiclass/40691/automl.xlsx
+++ b/results/multiclass/40691/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:11</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -585,7 +615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -595,32 +625,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.412</t>
+          <t>0.384</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>0.393</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.635</t>
+          <t>0.612</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>0.406</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,10 +670,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>00:00:54</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -657,7 +702,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.656</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -667,32 +712,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>0.308</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.396</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.298</t>
+          <t>0.309</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.656</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.608</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.403</t>
+          <t>0.442</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:11:13</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:10:37</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:02:25</t>
         </is>
       </c>
     </row>
@@ -729,7 +789,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.688</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -739,32 +799,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.489</t>
+          <t>0.495</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.688</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.668</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.498</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -784,12 +844,27 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:44:01</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:13:16</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
         </is>
       </c>
     </row>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -873,7 +963,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.662</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -883,32 +973,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.335</t>
+          <t>0.316</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.464</t>
+          <t>0.431</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.331</t>
+          <t>0.315</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.662</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.465</t>
+          <t>0.433</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>00:09:59</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -945,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.650</t>
+          <t>0.672</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -955,32 +1060,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.333</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.473</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.331</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.650</t>
+          <t>0.672</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.632</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.437</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>00:08:59</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>00:09:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.584</t>
+          <t>0.522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,32 +1147,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.362</t>
+          <t>0.213</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.366</t>
+          <t>0.192</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.351</t>
+          <t>0.188</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.584</t>
+          <t>0.522</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.582</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.369</t>
+          <t>0.210</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1072,10 +1192,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>00:10:05</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:01:45</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:10:01</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/multiclass/40691/automl.xlsx
+++ b/results/multiclass/40691/automl.xlsx
@@ -924,7 +924,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:20:07 (00:21:53 Â± 00:01:06)</t>
+          <t>00:00:23 (00:00:24 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multiclass/40691/automl.xlsx
+++ b/results/multiclass/40691/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.684 (0.676 Â± 0.006)</t>
+          <t>0.684 (0.676 ± 0.006)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:20 Â± 00:00:46)</t>
+          <t>00:04:49 (00:05:20 ± 00:00:46)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:04 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:04 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.712 (0.666 Â± 0.026)</t>
+          <t>0.712 (0.666 ± 0.026)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:02:12 (00:03:39 Â± 00:00:31)</t>
+          <t>00:02:12 (00:03:39 ± 00:00:31)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.667 (0.604 Â± 0.035)</t>
+          <t>0.667 (0.604 ± 0.035)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:30 (00:00:44 Â± 00:00:10)</t>
+          <t>00:00:30 (00:00:44 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.697 (0.650 Â± 0.026)</t>
+          <t>0.697 (0.650 ± 0.026)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:15 Â± 00:00:05)</t>
+          <t>00:05:06 (00:05:15 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.733 (0.699 Â± 0.021)</t>
+          <t>0.733 (0.699 ± 0.021)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.717 (0.663 Â± 0.028)</t>
+          <t>0.717 (0.663 ± 0.028)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:03)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.719 (0.668 Â± 0.030)</t>
+          <t>0.719 (0.668 ± 0.030)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:37 Â± 00:01:02)</t>
+          <t>00:05:01 (00:05:37 ± 00:01:02)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.730 (0.688 Â± 0.022)</t>
+          <t>0.730 (0.688 ± 0.022)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.743 (0.696 Â± 0.023)</t>
+          <t>0.743 (0.696 ± 0.023)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.665 (0.537 Â± 0.061)</t>
+          <t>0.665 (0.537 ± 0.061)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.700 (0.647 Â± 0.033)</t>
+          <t>0.700 (0.647 ± 0.033)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01:37 (00:02:28 Â± 00:00:20)</t>
+          <t>00:01:37 (00:02:28 ± 00:00:20)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.572 (0.462 Â± 0.100)</t>
+          <t>0.572 (0.462 ± 0.100)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:05)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.694 (0.657 Â± 0.020)</t>
+          <t>0.694 (0.657 ± 0.020)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:37 (00:00:40 Â± 00:00:02)</t>
+          <t>00:00:37 (00:00:40 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.721 (0.677 Â± 0.035)</t>
+          <t>0.721 (0.677 ± 0.035)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:57 (00:04:00 Â± 00:01:32)</t>
+          <t>00:00:57 (00:04:00 ± 00:01:32)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.725 (0.694 Â± 0.022)</t>
+          <t>0.725 (0.694 ± 0.022)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:24 Â± 00:00:00)</t>
+          <t>00:00:23 (00:00:24 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.720 (0.689 Â± 0.021)</t>
+          <t>0.720 (0.689 ± 0.021)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:08 Â± 00:00:07)</t>
+          <t>00:05:01 (00:05:08 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
